--- a/pm/stocks.xlsx
+++ b/pm/stocks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clinton/Dropbox/application_data/GitHub/ec_data/pm/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F655262-07EA-044F-9584-24EF218702B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B7B7C8AE-2FA8-B441-A40E-7DCE8D8AFC12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Query Sheet" sheetId="1" r:id="rId1"/>
@@ -2066,7 +2066,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W110"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
@@ -2879,7 +2881,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L399"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="9" topLeftCell="C10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
